--- a/TestingGA.xlsx
+++ b/TestingGA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -350,12 +350,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to successfully submit 'LOP' request</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -439,8 +433,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J60" totalsRowShown="0">
-  <x:autoFilter ref="A1:J60"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J52" totalsRowShown="0">
+  <x:autoFilter ref="A1:J52"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -745,7 +739,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J60"/>
+  <x:dimension ref="A1:J52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1693,156 +1687,6 @@
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
     </x:row>
-    <x:row r="53" spans="1:10">
-      <x:c r="A53" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B53" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D53" s="0" t="s"/>
-      <x:c r="E53" s="0" t="s"/>
-      <x:c r="F53" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G53" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="I53" s="0" t="s"/>
-      <x:c r="J53" s="0" t="s"/>
-    </x:row>
-    <x:row r="54" spans="1:10">
-      <x:c r="A54" s="0" t="s"/>
-      <x:c r="B54" s="0" t="s"/>
-      <x:c r="C54" s="0" t="s"/>
-      <x:c r="D54" s="0" t="s"/>
-      <x:c r="E54" s="0" t="s"/>
-      <x:c r="F54" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G54" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s"/>
-      <x:c r="J54" s="0" t="s"/>
-    </x:row>
-    <x:row r="55" spans="1:10">
-      <x:c r="A55" s="0" t="s"/>
-      <x:c r="B55" s="0" t="s"/>
-      <x:c r="C55" s="0" t="s"/>
-      <x:c r="D55" s="0" t="s"/>
-      <x:c r="E55" s="0" t="s"/>
-      <x:c r="F55" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G55" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I55" s="0" t="s"/>
-      <x:c r="J55" s="0" t="s"/>
-    </x:row>
-    <x:row r="56" spans="1:10">
-      <x:c r="A56" s="0" t="s"/>
-      <x:c r="B56" s="0" t="s"/>
-      <x:c r="C56" s="0" t="s"/>
-      <x:c r="D56" s="0" t="s"/>
-      <x:c r="E56" s="0" t="s"/>
-      <x:c r="F56" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G56" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="I56" s="0" t="s"/>
-      <x:c r="J56" s="0" t="s"/>
-    </x:row>
-    <x:row r="57" spans="1:10">
-      <x:c r="A57" s="0" t="s"/>
-      <x:c r="B57" s="0" t="s"/>
-      <x:c r="C57" s="0" t="s"/>
-      <x:c r="D57" s="0" t="s"/>
-      <x:c r="E57" s="0" t="s"/>
-      <x:c r="F57" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G57" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="H57" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="I57" s="0" t="s"/>
-      <x:c r="J57" s="0" t="s"/>
-    </x:row>
-    <x:row r="58" spans="1:10">
-      <x:c r="A58" s="0" t="s"/>
-      <x:c r="B58" s="0" t="s"/>
-      <x:c r="C58" s="0" t="s"/>
-      <x:c r="D58" s="0" t="s"/>
-      <x:c r="E58" s="0" t="s"/>
-      <x:c r="F58" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G58" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="I58" s="0" t="s"/>
-      <x:c r="J58" s="0" t="s"/>
-    </x:row>
-    <x:row r="59" spans="1:10">
-      <x:c r="A59" s="0" t="s"/>
-      <x:c r="B59" s="0" t="s"/>
-      <x:c r="C59" s="0" t="s"/>
-      <x:c r="D59" s="0" t="s"/>
-      <x:c r="E59" s="0" t="s"/>
-      <x:c r="F59" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G59" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H59" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I59" s="0" t="s"/>
-      <x:c r="J59" s="0" t="s"/>
-    </x:row>
-    <x:row r="60" spans="1:10">
-      <x:c r="A60" s="0" t="s"/>
-      <x:c r="B60" s="0" t="s"/>
-      <x:c r="C60" s="0" t="s"/>
-      <x:c r="D60" s="0" t="s"/>
-      <x:c r="E60" s="0" t="s"/>
-      <x:c r="F60" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="G60" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s"/>
-      <x:c r="J60" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
